--- a/IP_setting/IP_setting_v3.6/saved_addresses_2.xlsx
+++ b/IP_setting/IP_setting_v3.6/saved_addresses_2.xlsx
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
